--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="H2">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="I2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="J2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N2">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P2">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q2">
-        <v>11.85625520620844</v>
+        <v>1.935722182738777</v>
       </c>
       <c r="R2">
-        <v>106.706296855876</v>
+        <v>17.421499644649</v>
       </c>
       <c r="S2">
-        <v>0.005621202824093338</v>
+        <v>0.001005604616693701</v>
       </c>
       <c r="T2">
-        <v>0.005621202824093338</v>
+        <v>0.001005604616693701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="H3">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="I3">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="J3">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>119.053822</v>
       </c>
       <c r="O3">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P3">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q3">
-        <v>136.6456644976031</v>
+        <v>55.21328678028377</v>
       </c>
       <c r="R3">
-        <v>1229.810980478428</v>
+        <v>496.919581022554</v>
       </c>
       <c r="S3">
-        <v>0.06478546402845821</v>
+        <v>0.02868321527964808</v>
       </c>
       <c r="T3">
-        <v>0.0647854640284582</v>
+        <v>0.02868321527964808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="H4">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="I4">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="J4">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O4">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P4">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q4">
-        <v>9.634867451878444</v>
+        <v>3.893081435598111</v>
       </c>
       <c r="R4">
-        <v>86.71380706690601</v>
+        <v>35.037732920383</v>
       </c>
       <c r="S4">
-        <v>0.004568014367800032</v>
+        <v>0.002022449657141895</v>
       </c>
       <c r="T4">
-        <v>0.004568014367800032</v>
+        <v>0.002022449657141895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>119.053822</v>
       </c>
       <c r="I5">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="J5">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N5">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O5">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P5">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q5">
-        <v>136.6456644976031</v>
+        <v>55.21328678028377</v>
       </c>
       <c r="R5">
-        <v>1229.810980478428</v>
+        <v>496.919581022554</v>
       </c>
       <c r="S5">
-        <v>0.06478546402845821</v>
+        <v>0.02868321527964808</v>
       </c>
       <c r="T5">
-        <v>0.0647854640284582</v>
+        <v>0.02868321527964808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>119.053822</v>
       </c>
       <c r="I6">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="J6">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>119.053822</v>
       </c>
       <c r="O6">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P6">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q6">
         <v>1574.868059200854</v>
@@ -815,10 +815,10 @@
         <v>14173.81253280768</v>
       </c>
       <c r="S6">
-        <v>0.7466651677098353</v>
+        <v>0.818141469441198</v>
       </c>
       <c r="T6">
-        <v>0.746665167709835</v>
+        <v>0.818141469441198</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>119.053822</v>
       </c>
       <c r="I7">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="J7">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O7">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P7">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q7">
         <v>111.0437353456131</v>
@@ -877,10 +877,10 @@
         <v>999.3936181105181</v>
       </c>
       <c r="S7">
-        <v>0.05264726069625898</v>
+        <v>0.05768704513189492</v>
       </c>
       <c r="T7">
-        <v>0.05264726069625898</v>
+        <v>0.05768704513189494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,40 +909,40 @@
         <v>8.394469000000001</v>
       </c>
       <c r="I8">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="J8">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3.443291333333333</v>
+        <v>1.391302333333333</v>
       </c>
       <c r="N8">
-        <v>10.329874</v>
+        <v>4.173907</v>
       </c>
       <c r="O8">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="P8">
-        <v>0.07497468122035157</v>
+        <v>0.03171126955348368</v>
       </c>
       <c r="Q8">
-        <v>9.634867451878444</v>
+        <v>3.893081435598111</v>
       </c>
       <c r="R8">
-        <v>86.71380706690601</v>
+        <v>35.037732920383</v>
       </c>
       <c r="S8">
-        <v>0.004568014367800032</v>
+        <v>0.002022449657141895</v>
       </c>
       <c r="T8">
-        <v>0.004568014367800032</v>
+        <v>0.002022449657141895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="I9">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="J9">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>119.053822</v>
       </c>
       <c r="O9">
-        <v>0.8640978924345524</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="P9">
-        <v>0.8640978924345523</v>
+        <v>0.9045117298527411</v>
       </c>
       <c r="Q9">
         <v>111.0437353456131</v>
@@ -1001,10 +1001,10 @@
         <v>999.3936181105181</v>
       </c>
       <c r="S9">
-        <v>0.05264726069625898</v>
+        <v>0.05768704513189492</v>
       </c>
       <c r="T9">
-        <v>0.05264726069625898</v>
+        <v>0.05768704513189494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="I10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="J10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>8.394469000000001</v>
       </c>
       <c r="O10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377522</v>
       </c>
       <c r="P10">
-        <v>0.06092742634509613</v>
+        <v>0.06377700059377524</v>
       </c>
       <c r="Q10">
         <v>7.829678865773445</v>
@@ -1063,10 +1063,10 @@
         <v>70.46710979196101</v>
       </c>
       <c r="S10">
-        <v>0.003712151281037113</v>
+        <v>0.004067505804738405</v>
       </c>
       <c r="T10">
-        <v>0.003712151281037113</v>
+        <v>0.004067505804738407</v>
       </c>
     </row>
   </sheetData>
